--- a/analysis/data_commit/rob_publication_type.xlsx
+++ b/analysis/data_commit/rob_publication_type.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10112"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EB739B2-0240-401C-AF1E-A8E85A8EBBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/ac4294_cumc_columbia_edu/Documents/documents/papers/ryr_database/AHA_circulation-r1/risk of bias/rob_analysis/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1841A88C-1302-3A47-88C6-A8EF858E7901}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rob_type" sheetId="1" r:id="rId1"/>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>rob_publication_type_id</t>
   </si>
@@ -89,13 +94,19 @@
   </si>
   <si>
     <t>Review</t>
+  </si>
+  <si>
+    <t>Genetic Association</t>
+  </si>
+  <si>
+    <t>Mixed Methods</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,18 +471,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -487,7 +498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -495,7 +506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -503,7 +514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -511,7 +522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -519,7 +530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -527,7 +538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -535,7 +546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -543,12 +554,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -560,16 +587,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA05FE66-A917-4894-A124-BCCA7EB0F1B9}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -577,7 +604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -585,7 +612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -593,7 +620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -601,7 +628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -609,7 +636,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -617,7 +644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>

--- a/analysis/data_commit/rob_publication_type.xlsx
+++ b/analysis/data_commit/rob_publication_type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/ac4294_cumc_columbia_edu/Documents/documents/papers/ryr_database/AHA_circulation-r1/risk of bias/rob_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1841A88C-1302-3A47-88C6-A8EF858E7901}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F3B4A13-E8FE-F241-8E01-624324F1B8F2}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>rob_publication_type_id</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Mixed Methods</t>
+  </si>
+  <si>
+    <t>Case Only</t>
   </si>
 </sst>
 </file>
@@ -471,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -576,6 +579,14 @@
       </c>
       <c r="B12" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
